--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\OneDrive\Documents\Programmation\Cours\ENI\CDA\1 - Spring\Amis-Des-Objets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -936,11 +936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="409390136"/>
-        <c:axId val="409392096"/>
+        <c:axId val="408020048"/>
+        <c:axId val="408019664"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="409392096"/>
+        <c:axId val="408019664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -961,12 +961,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409390136"/>
+        <c:crossAx val="408020048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="409390136"/>
+        <c:axId val="408020048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +998,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409392096"/>
+        <c:crossAx val="408019664"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1541,7 +1541,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1898,7 +1898,9 @@
       <c r="G15" s="17">
         <v>8</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="17">
+        <v>3</v>
+      </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
@@ -1925,7 +1927,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" s="19">
         <v>5</v>
@@ -1936,7 +1938,9 @@
       <c r="G16" s="19">
         <v>3</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
@@ -1965,7 +1969,9 @@
       <c r="G17" s="19">
         <v>5</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>3</v>
+      </c>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -2029,7 +2035,9 @@
       <c r="G20" s="17">
         <v>2</v>
       </c>
-      <c r="H20" s="17"/>
+      <c r="H20" s="17">
+        <v>0</v>
+      </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
@@ -2056,7 +2064,7 @@
         <v>32</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E21" s="19">
         <v>0.5</v>
@@ -2067,7 +2075,9 @@
       <c r="G21" s="19">
         <v>0</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
@@ -2085,7 +2095,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E22" s="19">
         <v>3.5</v>
@@ -2096,7 +2106,9 @@
       <c r="G22" s="19">
         <v>2</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="19">
+        <v>0</v>
+      </c>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
@@ -2746,7 +2758,7 @@
       </c>
       <c r="H50" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I50" s="22">
         <f t="shared" si="8"/>
